--- a/templates/AutomationOrg/RSTK-9531-SYDATA-Create Generate WO picklist transaction.xlsx
+++ b/templates/AutomationOrg/RSTK-9531-SYDATA-Create Generate WO picklist transaction.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EDEBB9-0B0B-452A-86C6-F4C30B48BD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E547B0-B54A-44DD-8119-C356E1427E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77C97FEF-7E82-40F3-B240-8FA62379481A}"/>
   </bookViews>
@@ -439,17 +439,21 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G1" sqref="G1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
